--- a/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
@@ -606,6 +606,9 @@
       <c r="C21" t="str">
         <v>681_锦鲤橙_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -667,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015151010202091010615105510555100</v>
+        <v>015151010202091010615105510555105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -610,9 +610,329 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>4</v>
+      </c>
+      <c r="C22" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>606_康乃馨橙光_orange_undefined_20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>630_吸色康乃馨天蓝_tinted tiffany blue_undefined_20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>5</v>
+      </c>
+      <c r="C33" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>78_玉镜_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>45_拉丝艳粉_Spider pink+_Gerbera L._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>624_多丁白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>626_多丁黄言_undefined_undefined_undefinedundefined</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>625_多丁紫蝴蝶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>623_粉太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="C46" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>6</v>
+      </c>
+      <c r="C47" t="str">
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>550_蕾丝红色_lace flower brown_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L60"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -670,7 +990,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015151010202091010615105510555105</v>
+        <v>01515101020209101061510551055510515515151510101055101010101010101010101010520101081010101010101515105100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -929,10 +929,97 @@
       <c r="A60" t="str">
         <v>7</v>
       </c>
+      <c r="C60" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>388_大丽花_dahlia_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>8</v>
+      </c>
+      <c r="C68" t="str" xml:space="preserve">
+        <v xml:space="preserve">373_龙柳_Salix
+_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>9</v>
+      </c>
+      <c r="C69" t="str">
+        <v>721_银扇干花_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>447_黄金球_craspedia_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L60"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L70"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -990,7 +1077,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01515101020209101061510551055510515515151510101055101010101010101010101010520101081010101010101515105100</v>
+        <v>0151510102020910106151055105551051551515151010105510101010101010101010101052010108101010101010151510510101010510510101000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
@@ -1016,6 +1016,9 @@
       <c r="C70" t="str">
         <v>447_黄金球_craspedia_undefined_1bunch</v>
       </c>
+      <c r="F70" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1077,7 +1080,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151510102020910106151055105551051551515151010105510101010101010101010101052010108101010101010151510510101010510510101000</v>
+        <v>0151510102020910106151055105551051551515151010105510101010101010101010101052010108101010101010151510510101010510510101005</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
@@ -1011,6 +1011,9 @@
       <c r="C69" t="str">
         <v>721_银扇干花_undefined_undefined_1bunch</v>
       </c>
+      <c r="F69" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="C70" t="str">
@@ -1080,7 +1083,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151510102020910106151055105551051551515151010105510101010101010101010101052010108101010101010151510510101010510510101005</v>
+        <v>0151510102020910106151055105551051551515151010105510101010101010101010101052010108101010101010151510510101010510510101015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1012,7 +1012,7 @@
         <v>721_银扇干花_undefined_undefined_1bunch</v>
       </c>
       <c r="F69" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -1023,9 +1023,175 @@
         <v>5</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>1</v>
+      </c>
+      <c r="C71" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F74" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>121_绣球鲜红_Hydrangea_Hydrangea L._1stem</v>
+      </c>
+      <c r="F75" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>102_绣球重瓣白_Hydrangea White D_Hydrangea L._1stem</v>
+      </c>
+      <c r="F76" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F77" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>2</v>
+      </c>
+      <c r="C78" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F79" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F80" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F81" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F82" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>278_红雷丝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F83" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>624_多丁白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F84" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>622_时尚太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F85" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>3</v>
+      </c>
+      <c r="C86" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F86" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F87" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F88" t="str">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F89" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>85_摩洛哥_undefined_Gerbera L._10stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L70"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L90"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1083,7 +1249,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151510102020910106151055105551051551515151010105510101010101010101010101052010108101010101010151510510101010510510101015</v>
+        <v>015151010202091010615105510555105155151515101010551010101010101010101010105201010810101010101015151051010101051051010101051530102020151515151551251057724100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
@@ -1188,6 +1188,9 @@
       <c r="C90" t="str">
         <v>85_摩洛哥_undefined_Gerbera L._10stems</v>
       </c>
+      <c r="F90" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1249,7 +1252,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015151010202091010615105510555105155151515101010551010101010101010101010105201010810101010101015151051010101051051010101051530102020151515151551251057724100</v>
+        <v>015151010202091010615105510555105155151515101010551010101010101010101010105201010810101010101015151051010101051051010101051530102020151515151551251057724105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1192,9 +1192,223 @@
         <v>5</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>4</v>
+      </c>
+      <c r="C91" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F91" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F92" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F93" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F94" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F95" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F96" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="str">
+        <v>641_绿枫叶_maple leaf_undefined_1bunch</v>
+      </c>
+      <c r="F97" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>5</v>
+      </c>
+      <c r="C98" t="str">
+        <v>615_康乃馨野马_horse_undefined_20stems</v>
+      </c>
+      <c r="F98" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F99" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F100" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F101" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F102" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F103" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F104" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F105" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F106" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>6</v>
+      </c>
+      <c r="C107" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F107" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F108" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F109" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F110" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F111" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F112" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F113" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F114" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="str">
+        <v>18_波浪黄洋桔梗_Wavy Yellow Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F115" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L90"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L116"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1252,7 +1466,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015151010202091010615105510555105155151515101010551010101010101010101010105201010810101010101015151051010101051051010101051530102020151515151551251057724105</v>
+        <v>0151510102020910106151055105551051551515151010105510101010101010101010101052010108101010101010151510510101010510510101010515301020201515151515512510577241054811102101510510510555101555101015231550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
@@ -1405,6 +1405,9 @@
       <c r="C116" t="str">
         <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
       </c>
+      <c r="F116" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1466,7 +1469,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151510102020910106151055105551051551515151010105510101010101010101010101052010108101010101010151510510101010510510101010515301020201515151515512510577241054811102101510510510555101555101015231550</v>
+        <v>0151510102020910106151055105551051551515151010105510101010101010101010101052010108101010101010151510510101010510510101010515301020201515151515512510577241054811102101510510510555101555101015231555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-16.xlsx
@@ -1471,6 +1471,9 @@
       <c r="G2" t="str">
         <v>0151510102020910106151055105551051551515151010105510101010101010101010101052010108101010101010151510510101010510510101010515301020201515151515512510577241054811102101510510510555101555101015231555</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
